--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,9 +408,23 @@
         <v>a84876e7e0593b0995b09045b34c582c3c6bafc096fb444939e8534553babc53</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>16.03.2023</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/ed806f827269d7f72e29e68f9f504f8efbab3dc6</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0e08fd8eee36e999283f9dd25c3209735b91da1642e3b67aadf38a56da7ed5d6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,9 +422,23 @@
         <v>0e08fd8eee36e999283f9dd25c3209735b91da1642e3b67aadf38a56da7ed5d6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>23.03.2023 10:08 (CET)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/69c451ed3cc43181ccf7143ba7e6ada345d38d6f</v>
+      </c>
+      <c r="D4" t="str">
+        <v>7d94edb76e6b01e30e2dea18580509d0f3efcd866bfcad2a4b298e040d1da0f6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,9 +436,23 @@
         <v>7d94edb76e6b01e30e2dea18580509d0f3efcd866bfcad2a4b298e040d1da0f6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>24.03.2023 16:20 (CET)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/7d95b41a9b432c782ac3bd45ad803e677399ab28</v>
+      </c>
+      <c r="D5" t="str">
+        <v>b4ab941a87685341ec282f6e0ff6634ae8a1afa78e3fffdcbad16e151dde0c33</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,9 +450,23 @@
         <v>b4ab941a87685341ec282f6e0ff6634ae8a1afa78e3fffdcbad16e151dde0c33</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>31.03.2023 12:45 (CET)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/b7ffbf458b88d4980e1c5ee0f583ccc127d4f792</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ee5338c88b6ae24c0e57aa6023372a73e87041c67f6f82013b2f688772015316</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/5609c4bce40fa31a0b03933adc1456363ef8d618</v>
       </c>
       <c r="D2" t="str">
-        <v>a84876e7e0593b0995b09045b34c582c3c6bafc096fb444939e8534553babc53</v>
+        <v>6eca91e3ee06c8bff1654dba0f3e21432c104d43876eefbf6b48c7d0e4cea770</v>
       </c>
     </row>
     <row r="3">
@@ -419,12 +419,26 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/ed806f827269d7f72e29e68f9f504f8efbab3dc6</v>
       </c>
       <c r="D3" t="str">
-        <v>0e08fd8eee36e999283f9dd25c3209735b91da1642e3b67aadf38a56da7ed5d6</v>
+        <v>262911b1308e8175e3ad988887fea8be3ba8bcae08e428719721267456123163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>31.03.2023 12:45 (CET)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>{"ProposedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/4ed84f92a361098006df6448cc6932c63b60c9fc","UpdatedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/b7ffbf458b88d4980e1c5ee0f583ccc127d4f792","Domain":"Process","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D4" t="str">
+        <v>934d8ccb2eeeedb75d5428989f60d106a18094cf6692d336ec1ef3e761339fa7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/5609c4bce40fa31a0b03933adc1456363ef8d618</v>
       </c>
       <c r="D2" t="str">
-        <v>6eca91e3ee06c8bff1654dba0f3e21432c104d43876eefbf6b48c7d0e4cea770</v>
+        <v>a84876e7e0593b0995b09045b34c582c3c6bafc096fb444939e8534553babc53</v>
       </c>
     </row>
     <row r="3">
@@ -419,7 +419,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/ed806f827269d7f72e29e68f9f504f8efbab3dc6</v>
       </c>
       <c r="D3" t="str">
-        <v>262911b1308e8175e3ad988887fea8be3ba8bcae08e428719721267456123163</v>
+        <v>0e08fd8eee36e999283f9dd25c3209735b91da1642e3b67aadf38a56da7ed5d6</v>
       </c>
     </row>
     <row r="4">
@@ -427,18 +427,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
+        <v>23.03.2023 10:08 (CET)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/69c451ed3cc43181ccf7143ba7e6ada345d38d6f</v>
+      </c>
+      <c r="D4" t="str">
+        <v>7d94edb76e6b01e30e2dea18580509d0f3efcd866bfcad2a4b298e040d1da0f6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>24.03.2023 16:20 (CET)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/7d95b41a9b432c782ac3bd45ad803e677399ab28</v>
+      </c>
+      <c r="D5" t="str">
+        <v>b4ab941a87685341ec282f6e0ff6634ae8a1afa78e3fffdcbad16e151dde0c33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
         <v>31.03.2023 12:45 (CET)</v>
       </c>
-      <c r="C4" t="str">
-        <v>{"ProposedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/4ed84f92a361098006df6448cc6932c63b60c9fc","UpdatedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/b7ffbf458b88d4980e1c5ee0f583ccc127d4f792","Domain":"Process","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
-      </c>
-      <c r="D4" t="str">
-        <v>934d8ccb2eeeedb75d5428989f60d106a18094cf6692d336ec1ef3e761339fa7</v>
+      <c r="C6" t="str">
+        <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/b7ffbf458b88d4980e1c5ee0f583ccc127d4f792</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ee5338c88b6ae24c0e57aa6023372a73e87041c67f6f82013b2f688772015316</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -405,7 +405,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/5609c4bce40fa31a0b03933adc1456363ef8d618</v>
       </c>
       <c r="D2" t="str">
-        <v>a84876e7e0593b0995b09045b34c582c3c6bafc096fb444939e8534553babc53</v>
+        <v>6eca91e3ee06c8bff1654dba0f3e21432c104d43876eefbf6b48c7d0e4cea770</v>
       </c>
     </row>
     <row r="3">
@@ -419,7 +419,7 @@
         <v>https://gitlab.intra.infineon.com/digital-reference/process_model_version/-/commit/ed806f827269d7f72e29e68f9f504f8efbab3dc6</v>
       </c>
       <c r="D3" t="str">
-        <v>0e08fd8eee36e999283f9dd25c3209735b91da1642e3b67aadf38a56da7ed5d6</v>
+        <v>262911b1308e8175e3ad988887fea8be3ba8bcae08e428719721267456123163</v>
       </c>
     </row>
     <row r="4">
@@ -433,7 +433,7 @@
         <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/69c451ed3cc43181ccf7143ba7e6ada345d38d6f</v>
       </c>
       <c r="D4" t="str">
-        <v>7d94edb76e6b01e30e2dea18580509d0f3efcd866bfcad2a4b298e040d1da0f6</v>
+        <v>c59557639441bcd0ed68a07b4555f7f7bb7702e6b97677d67a982ab4400884fe</v>
       </c>
     </row>
     <row r="5">
@@ -447,7 +447,7 @@
         <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/7d95b41a9b432c782ac3bd45ad803e677399ab28</v>
       </c>
       <c r="D5" t="str">
-        <v>b4ab941a87685341ec282f6e0ff6634ae8a1afa78e3fffdcbad16e151dde0c33</v>
+        <v>321c69c926111abfa23c2d89884607c968af7aab8e3d7eabbf42bd7cad26b198</v>
       </c>
     </row>
     <row r="6">
@@ -461,7 +461,7 @@
         <v>https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/b7ffbf458b88d4980e1c5ee0f583ccc127d4f792</v>
       </c>
       <c r="D6" t="str">
-        <v>ee5338c88b6ae24c0e57aa6023372a73e87041c67f6f82013b2f688772015316</v>
+        <v>bdf901631cafc7894c25c38edd8e8c1d1afab21fe2419292653a17972ee558f4</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,9 +464,23 @@
         <v>ee5338c88b6ae24c0e57aa6023372a73e87041c67f6f82013b2f688772015316</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>17.04.2023 12:45 (CET)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>{"ProposedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/4ed84f92a361098006df6448cc6932c63b60c9fc","UpdatedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/8c89276d5970a8c6cdbdf7ced361b6cdaa31cc08","Domain":"Process","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D7" t="str">
+        <v>af6db4b2317d53a8bd050e6333180d1b35e601847084e8c620da329ae24eaa5a</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_PMV.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,9 +464,23 @@
         <v>bdf901631cafc7894c25c38edd8e8c1d1afab21fe2419292653a17972ee558f4</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>17.04.2023 12:45 (CET)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>{"ProposedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/4ed84f92a361098006df6448cc6932c63b60c9fc","UpdatedVersion":"https://gitlab.intra.infineon.com/semantic-web-projects/digital-reference/process_model_version/-/commit/8c89276d5970a8c6cdbdf7ced361b6cdaa31cc08","Domain":"Process","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ef9f55d81e223f12e16df6d3336f9e28b03872bced4985157868c6f5f1b750be</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>